--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.96875</v>
+        <v>0.975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03423265984407288</v>
+        <v>0.03644344934278313</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -497,7 +497,7 @@
         <v>0.90625</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29899053776933</v>
+        <v>26.75377194105692</v>
       </c>
       <c r="G2" t="n">
         <v>160</v>
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.94375</v>
+        <v>0.95625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03644344934278312</v>
+        <v>0.03186887195995491</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>0.90625</v>
       </c>
       <c r="F3" t="n">
-        <v>25.89627925063843</v>
+        <v>30.0057592607605</v>
       </c>
       <c r="G3" t="n">
         <v>160</v>
@@ -541,19 +541,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.94375</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05728219618694799</v>
+        <v>0.02795084971874737</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="F4" t="n">
-        <v>16.47544783662745</v>
+        <v>33.54100766250114</v>
       </c>
       <c r="G4" t="n">
         <v>160</v>
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.94375</v>
+        <v>0.91875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04592793267718459</v>
+        <v>0.03186887195995491</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="E5" t="n">
         <v>0.875</v>
       </c>
       <c r="F5" t="n">
-        <v>20.548492812608</v>
+        <v>28.82906281916204</v>
       </c>
       <c r="G5" t="n">
         <v>160</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="7">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.96875</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="18">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>40hz</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-02 14:50:30</t>
+          <t>2025-10-02 15:54:34</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.975</v>
+        <v>0.96875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03644344934278313</v>
+        <v>0.03423265984407288</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -497,7 +497,7 @@
         <v>0.90625</v>
       </c>
       <c r="F2" t="n">
-        <v>26.75377194105692</v>
+        <v>28.29899053776933</v>
       </c>
       <c r="G2" t="n">
         <v>160</v>
@@ -509,14 +509,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.95625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03186887195995491</v>
+        <v>0.0375</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>0.90625</v>
       </c>
       <c r="F3" t="n">
-        <v>30.0057592607605</v>
+        <v>25.49999320000181</v>
       </c>
       <c r="G3" t="n">
         <v>160</v>
@@ -537,23 +537,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9375</v>
+        <v>0.94375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02795084971874737</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="F4" t="n">
-        <v>33.54100766250114</v>
+        <v>18.87499622500076</v>
       </c>
       <c r="G4" t="n">
         <v>160</v>
@@ -572,16 +572,16 @@
         <v>0.91875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03186887195995491</v>
+        <v>0.05796011559684815</v>
       </c>
       <c r="D5" t="n">
         <v>0.96875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="F5" t="n">
-        <v>28.82906281916204</v>
+        <v>15.8514149260222</v>
       </c>
       <c r="G5" t="n">
         <v>160</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96875</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.96875</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="12">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="14">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="20">
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="21">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>30hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-02 15:54:34</t>
+          <t>2025-10-02 16:36:44</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -481,113 +481,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.96875</v>
+        <v>0.83125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03423265984407288</v>
+        <v>0.04238956239453293</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.90625</v>
+        <v>0.78125</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29899053776933</v>
+        <v>19.60977554251545</v>
       </c>
       <c r="G2" t="n">
         <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>30hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.95625</v>
+        <v>0.825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0375</v>
+        <v>0.025</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>25.49999320000181</v>
+        <v>32.99998680000527</v>
       </c>
       <c r="G3" t="n">
         <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>40hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.94375</v>
+        <v>0.7875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05</v>
+        <v>0.0125</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
       <c r="F4" t="n">
-        <v>18.87499622500076</v>
+        <v>62.99994960004032</v>
       </c>
       <c r="G4" t="n">
         <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.91875</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05796011559684815</v>
+        <v>0.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="F5" t="n">
-        <v>15.8514149260222</v>
+        <v>11.99999808000031</v>
       </c>
       <c r="G5" t="n">
         <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.90625</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.96875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.96875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.90625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.96875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="19">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="20">
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.96875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="21">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>10hz</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>40hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-02 16:36:44</t>
+          <t>2025-10-02 20:31:00</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -481,113 +481,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>30hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.83125</v>
+        <v>0.9375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04238956239453293</v>
+        <v>0.05929270612815711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="F2" t="n">
-        <v>19.60977554251545</v>
+        <v>15.81138563417568</v>
       </c>
       <c r="G2" t="n">
         <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.825</v>
+        <v>0.93125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.025</v>
+        <v>0.02338535866733714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="F3" t="n">
-        <v>32.99998680000527</v>
+        <v>39.82190801638708</v>
       </c>
       <c r="G3" t="n">
         <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>90</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7875</v>
+        <v>0.8875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0125</v>
+        <v>0.0318688719599549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="F4" t="n">
-        <v>62.99994960004032</v>
+        <v>27.84848245116334</v>
       </c>
       <c r="G4" t="n">
         <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>40hz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0625</v>
+        <v>0.05590169943749474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="F5" t="n">
-        <v>11.99999808000031</v>
+        <v>15.65247304249903</v>
       </c>
       <c r="G5" t="n">
         <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78125</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.71875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.78125</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="18">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="20">
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.78125</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="21">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.78125</v>
+        <v>0.90625</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>30hz</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>40hz</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>10hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-02 20:31:00</t>
+          <t>2025-10-03 16:22:27</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,109 +485,109 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05929270612815711</v>
+        <v>0.0369754986443726</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
       <c r="F2" t="n">
-        <v>15.81138563417568</v>
+        <v>24.93204377163592</v>
       </c>
       <c r="G2" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>40hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.93125</v>
+        <v>0.88125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.04485218779502289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>39.82190801638708</v>
+        <v>19.64786662244207</v>
       </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H3" t="n">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8875</v>
+        <v>0.86875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0318688719599549</v>
+        <v>0.02538762001448738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="E4" t="n">
         <v>0.84375</v>
       </c>
       <c r="F4" t="n">
-        <v>27.84848245116334</v>
+        <v>34.21942101347193</v>
       </c>
       <c r="G4" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H4" t="n">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.875</v>
+        <v>0.853125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05590169943749474</v>
+        <v>0.03365728004459066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9375</v>
+        <v>0.890625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="F5" t="n">
-        <v>15.65247304249903</v>
+        <v>25.34740613013533</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H5" t="n">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="3">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9375</v>
+        <v>0.890625</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="7">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.875</v>
+        <v>0.890625</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="13">
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.90625</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.78125</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="19">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="20">
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="21">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>25</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
         <v>25</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
@@ -985,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>25</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>25</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
         <v>25</v>
@@ -1049,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
         <v>25</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
         <v>25</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
         <v>25</v>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>25</v>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
         <v>25</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
         <v>25</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
         <v>25</v>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
         <v>25</v>
@@ -1177,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
         <v>25</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-03 16:22:27</t>
+          <t>2025-10-06 15:13:44</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,81 +485,81 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.921875</v>
+        <v>0.909375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0369754986443726</v>
+        <v>0.03479852726768764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
       <c r="F2" t="n">
-        <v>24.93204377163592</v>
+        <v>26.13256393522049</v>
       </c>
       <c r="G2" t="n">
         <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>40hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.88125</v>
+        <v>0.840625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04485218779502289</v>
+        <v>0.02072890493972125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
         <v>0.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>19.64786662244207</v>
+        <v>40.55325628208227</v>
       </c>
       <c r="G3" t="n">
         <v>320</v>
       </c>
       <c r="H3" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>40hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.86875</v>
+        <v>0.809375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02538762001448738</v>
+        <v>0.04122158111960288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.84375</v>
+        <v>0.765625</v>
       </c>
       <c r="F4" t="n">
-        <v>34.21942101347193</v>
+        <v>19.63473456547636</v>
       </c>
       <c r="G4" t="n">
         <v>320</v>
       </c>
       <c r="H4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -569,25 +569,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.853125</v>
+        <v>0.80625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03365728004459066</v>
+        <v>0.0125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="F5" t="n">
-        <v>25.34740613013533</v>
+        <v>64.49994840004129</v>
       </c>
       <c r="G5" t="n">
         <v>320</v>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.890625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.890625</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.859375</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="17">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.921875</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="19">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="20">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9375</v>
+        <v>0.765625</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-06 15:13:44</t>
+          <t>2025-10-07 07:52:43</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,112 +481,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.909375</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03479852726768764</v>
+        <v>0.03385016001931648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>26.13256393522049</v>
+        <v>18.70990110158749</v>
       </c>
       <c r="G2" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="H2" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10hz</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.840625</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02072890493972125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40.55325628208227</v>
-      </c>
-      <c r="G3" t="n">
-        <v>320</v>
-      </c>
-      <c r="H3" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.809375</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04122158111960288</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.765625</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.63473456547636</v>
-      </c>
-      <c r="G4" t="n">
-        <v>320</v>
-      </c>
-      <c r="H4" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.80625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.796875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>64.49994840004129</v>
-      </c>
-      <c r="G5" t="n">
-        <v>320</v>
-      </c>
-      <c r="H5" t="n">
         <v>109</v>
       </c>
     </row>
@@ -601,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,261 +545,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.84375</v>
+        <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.84375</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.828125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.828125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.796875</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.796875</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.796875</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.921875</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.765625</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.828125</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.765625</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,257 +651,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10hz</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>80</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>80</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>80</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>80</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>80</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>80</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>80</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +734,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1232,7 +745,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-07 07:52:43</t>
+          <t>2025-10-08 14:30:08</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,29 +481,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03029799910885206</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.29235372566781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>320</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04780330793993236</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.796875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.04268065835475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>320</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>20hz</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03385016001931648</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.70990110158749</v>
-      </c>
-      <c r="G2" t="n">
-        <v>240</v>
-      </c>
-      <c r="H2" t="n">
-        <v>109</v>
+      <c r="B4" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01593443597997745</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50.59793111182525</v>
+      </c>
+      <c r="G4" t="n">
+        <v>320</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10hz</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05555121510822243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.51363130928795</v>
+      </c>
+      <c r="G5" t="n">
+        <v>320</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,66 +629,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.828125</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,49 +930,257 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10hz</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10hz</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>20hz</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.33333333333333</v>
+      <c r="C9" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30hz</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>40hz</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +1221,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -745,7 +1232,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>30hz</t>
         </is>
       </c>
     </row>
@@ -757,7 +1244,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20hz</t>
+          <t>10hz</t>
         </is>
       </c>
     </row>
@@ -781,7 +1268,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-08 14:30:08</t>
+          <t>2025-10-13 15:55:25</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,113 +481,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8875</v>
+        <v>0.784375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03029799910885206</v>
+        <v>0.0318688719599549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.921875</v>
+        <v>0.828125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84375</v>
+        <v>0.734375</v>
       </c>
       <c r="F2" t="n">
-        <v>29.29235372566781</v>
+        <v>24.6125672367676</v>
       </c>
       <c r="G2" t="n">
         <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8625</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04780330793993236</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.796875</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.04268065835475</v>
-      </c>
-      <c r="G3" t="n">
-        <v>320</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.80625</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01593443597997745</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50.59793111182525</v>
-      </c>
-      <c r="G4" t="n">
-        <v>320</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10hz</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.80625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05555121510822243</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.859375</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.51363130928795</v>
-      </c>
-      <c r="G5" t="n">
-        <v>320</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,33 +545,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.71875</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.859375</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -668,222 +584,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.859375</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.765625</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.796875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.828125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.921875</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.921875</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.796875</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.828125</v>
+        <v>0.734375</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,7 +651,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -946,7 +667,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -962,7 +683,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -978,7 +699,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -988,198 +709,6 @@
         <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>80</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>80</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>80</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30hz</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>80</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>80</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>80</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40hz</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>80</v>
-      </c>
-      <c r="D17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1221,7 +750,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1232,7 +761,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1244,7 +773,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10hz</t>
+          <t>20hz</t>
         </is>
       </c>
     </row>
@@ -1268,7 +797,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-13 15:55:25</t>
+          <t>2025-10-13 18:42:37</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.784375</v>
+        <v>0.440625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0318688719599549</v>
+        <v>0.0375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.828125</v>
+        <v>0.484375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.734375</v>
+        <v>0.375</v>
       </c>
       <c r="F2" t="n">
-        <v>24.6125672367676</v>
+        <v>11.7499968666675</v>
       </c>
       <c r="G2" t="n">
         <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.796875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.796875</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.828125</v>
+        <v>0.484375</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.765625</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.734375</v>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +797,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-13 18:42:37</t>
+          <t>2025-10-14 08:47:35</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.440625</v>
+        <v>0.6625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0375</v>
+        <v>0.03365728004459066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.484375</v>
+        <v>0.703125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="n">
-        <v>11.7499968666675</v>
+        <v>19.68369999849337</v>
       </c>
       <c r="G2" t="n">
         <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.46875</v>
+        <v>0.640625</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.484375</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.375</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4375</v>
+        <v>0.640625</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +797,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-14 08:47:35</t>
+          <t>2025-10-28 09:58:06</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6625</v>
+        <v>0.7722222222222223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03365728004459066</v>
+        <v>0.01883980550868128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.703125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.625</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="F2" t="n">
-        <v>19.68369999849337</v>
+        <v>40.98884205455126</v>
       </c>
       <c r="G2" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.625</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.640625</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.703125</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.703125</v>
+        <v>0.7361111111111112</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.640625</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -687,29 +687,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-28 09:58:06</t>
+          <t>2025-10-29 14:38:33</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7722222222222223</v>
+        <v>0.85</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01883980550868128</v>
+        <v>0.05076574134026962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>40.98884205455126</v>
+        <v>16.74357174983329</v>
       </c>
       <c r="G2" t="n">
         <v>360</v>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-29 14:38:33</t>
+          <t>2025-10-30 19:19:18</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.85</v>
+        <v>0.8861111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05076574134026962</v>
+        <v>0.02222222222222223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>16.74357174983329</v>
+        <v>39.87498205625805</v>
       </c>
       <c r="G2" t="n">
         <v>360</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-30 19:19:18</t>
+          <t>2025-10-31 11:41:31</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/cv_results_no_load.xlsx
+++ b/notebooks/test_output/cv_results_no_load.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8861111111111111</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02222222222222223</v>
+        <v>0.02576005137637695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E2" t="n">
         <v>0.8472222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>39.87498205625805</v>
+        <v>34.72213949244264</v>
       </c>
       <c r="G2" t="n">
         <v>360</v>
       </c>
       <c r="H2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8472222222222222</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-31 11:41:31</t>
+          <t>2025-11-04 17:54:29</t>
         </is>
       </c>
     </row>
